--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1466776.701787189</v>
+        <v>1411824.812503092</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013174</v>
+        <v>408938.3872013175</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11497228.11079585</v>
+        <v>11497228.11079586</v>
       </c>
     </row>
     <row r="9">
@@ -1372,13 +1372,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.827923377710469</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>7.367998683744367</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>54.78953146093557</v>
       </c>
       <c r="U12" t="n">
         <v>237.1773944157285</v>
@@ -1511,13 +1511,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>209.9748055430807</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.00010435294849</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>52.42857711587119</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
         <v>216.1639724458418</v>
@@ -1666,10 +1666,10 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>149.565741997617</v>
       </c>
       <c r="W14" t="n">
-        <v>216.0862956980083</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>113.9820077191651</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>139.8851963399928</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -1754,7 +1754,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553586</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>149.8100015377237</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>7.226885210985944</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>350.2054973811788</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>198.2427904969664</v>
+        <v>187.6243774338442</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>7.601432783566558</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>147.9743432409925</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>177.283526739121</v>
@@ -1982,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>186.4917002020692</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -2046,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>50.00010435294849</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>8.916258666857129</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>373.630926902331</v>
       </c>
       <c r="H20" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>97.0972938392499</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.210887664027</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>47.03527206648523</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -2228,7 +2228,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>123.1434003800102</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>8.91625866685696</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>159.3088692662866</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>29.1024289164286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -2405,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>3.363353807017575</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>177.283526739121</v>
@@ -2453,13 +2453,13 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1773944157285</v>
+        <v>139.8851963399931</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>79.21164602254896</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>80.39631948615289</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>108.4954650751024</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
-        <v>157.173974396175</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547734</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>382.2855674184499</v>
@@ -2636,7 +2636,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -2648,13 +2648,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9743432409925</v>
+        <v>91.02452946481645</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>22.70042032133777</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>76.53519509961438</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>52.42857711587138</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>328.6798195995831</v>
       </c>
       <c r="F29" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.99309787596125</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547734</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
         <v>194.7117974622146</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>128.2361861151054</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
@@ -2885,13 +2885,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9743432409925</v>
+        <v>47.86972744011203</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>52.42857711587158</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>129.4825785166959</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>130.718666776681</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547734</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>172.5374355064617</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3116,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
-        <v>120.5537487051916</v>
+        <v>175.3863314079987</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>123.1434003800104</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R34" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.2101074720031217</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>194.9586242805003</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>210.5518240523789</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3356,10 +3356,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>105.6350731693105</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.28457206481563</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3404,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>168.0550137836253</v>
+        <v>80.39631948615272</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>129.482578516696</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="38">
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>326.2189840146614</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>185.5090622027477</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>184.2571853801182</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -3590,16 +3590,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>3.329915919762787</v>
+        <v>0.7503562867759977</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.1773944157285</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H40" t="n">
-        <v>152.1044229849743</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>129.4825785166959</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2779548450047</v>
+        <v>171.971964608294</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>161.1628163773359</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,10 +3827,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>196.5836704042886</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>103.1100538602886</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>76.53519509961447</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>123.1434003800102</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
         <v>417.3985592667085</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>110.1360463898733</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>126.7894573752435</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,16 +4058,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>9.382502245123849</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>177.283526739121</v>
+        <v>161.3799562909893</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>237.1773944157285</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>16.93456886964965</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>76.53519509961447</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>557.3318417915689</v>
+        <v>396.9746738230202</v>
       </c>
       <c r="C11" t="n">
-        <v>557.3318417915689</v>
+        <v>43.23174717536483</v>
       </c>
       <c r="D11" t="n">
-        <v>557.3318417915689</v>
+        <v>43.23174717536483</v>
       </c>
       <c r="E11" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F11" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602962</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193747</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389726</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292776</v>
+        <v>856.6460009292787</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O11" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P11" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q11" t="n">
         <v>1715.732642722258</v>
@@ -5071,22 +5071,22 @@
         <v>1413.548593210149</v>
       </c>
       <c r="T11" t="n">
-        <v>1195.201146295157</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U11" t="n">
-        <v>942.6401640759908</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="V11" t="n">
-        <v>935.1977411631177</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="W11" t="n">
-        <v>935.1977411631177</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="X11" t="n">
-        <v>935.1977411631177</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="Y11" t="n">
-        <v>935.1977411631177</v>
+        <v>774.8405731945691</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>223.7269271214814</v>
+        <v>908.3382686120787</v>
       </c>
       <c r="C12" t="n">
-        <v>34.31465285444516</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="D12" t="n">
-        <v>34.31465285444516</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E12" t="n">
-        <v>34.31465285444516</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F12" t="n">
-        <v>34.31465285444516</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G12" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H12" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I12" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K12" t="n">
-        <v>54.40930111025867</v>
+        <v>112.3287381944635</v>
       </c>
       <c r="L12" t="n">
-        <v>304.6946924676438</v>
+        <v>395.2338702498417</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207054</v>
+        <v>770.1254798029032</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722258</v>
@@ -5147,25 +5147,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S12" t="n">
-        <v>1536.658373288802</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T12" t="n">
-        <v>1322.652080056737</v>
+        <v>1660.389681650606</v>
       </c>
       <c r="U12" t="n">
-        <v>1083.078954384284</v>
+        <v>1420.816555978153</v>
       </c>
       <c r="V12" t="n">
-        <v>839.9992362879179</v>
+        <v>1177.736837881787</v>
       </c>
       <c r="W12" t="n">
-        <v>839.9992362879179</v>
+        <v>908.3382686120787</v>
       </c>
       <c r="X12" t="n">
-        <v>627.9034731130889</v>
+        <v>908.3382686120787</v>
       </c>
       <c r="Y12" t="n">
-        <v>402.2627800484165</v>
+        <v>908.3382686120787</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J13" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L13" t="n">
         <v>105.4471208306432</v>
@@ -5220,31 +5220,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.97555818097</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V13" t="n">
-        <v>84.81980876651434</v>
+        <v>87.27281155734536</v>
       </c>
       <c r="W13" t="n">
-        <v>84.81980876651434</v>
+        <v>87.27281155734536</v>
       </c>
       <c r="X13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>596.9287682730148</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="C14" t="n">
-        <v>596.9287682730148</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="D14" t="n">
-        <v>596.9287682730148</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="E14" t="n">
-        <v>221.6975439683318</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F14" t="n">
-        <v>221.6975439683318</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G14" t="n">
-        <v>221.6975439683318</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I14" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389718</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292778</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N14" t="n">
         <v>1186.279026157782</v>
@@ -5299,31 +5299,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q14" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1610.227176505314</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S14" t="n">
-        <v>1610.227176505314</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T14" t="n">
-        <v>1391.879729590323</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="U14" t="n">
-        <v>1139.318747371157</v>
+        <v>942.6401640759908</v>
       </c>
       <c r="V14" t="n">
-        <v>815.1977538265586</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="W14" t="n">
-        <v>596.9287682730148</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="X14" t="n">
-        <v>596.9287682730148</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="Y14" t="n">
-        <v>596.9287682730148</v>
+        <v>791.5636570076908</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>565.0989658669706</v>
+        <v>365.0251052426863</v>
       </c>
       <c r="C15" t="n">
-        <v>565.0989658669706</v>
+        <v>175.61283097565</v>
       </c>
       <c r="D15" t="n">
-        <v>449.9656247365008</v>
+        <v>175.61283097565</v>
       </c>
       <c r="E15" t="n">
-        <v>276.4024208579153</v>
+        <v>175.61283097565</v>
       </c>
       <c r="F15" t="n">
-        <v>115.9747045751594</v>
+        <v>175.61283097565</v>
       </c>
       <c r="G15" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I15" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.40930111025866</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L15" t="n">
-        <v>498.4142537443595</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M15" t="n">
-        <v>873.305863297421</v>
+        <v>692.1113944628851</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.820066520716</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O15" t="n">
-        <v>1395.95310056761</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P15" t="n">
-        <v>1625.19346494006</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q15" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S15" t="n">
         <v>1536.658373288802</v>
       </c>
       <c r="T15" t="n">
-        <v>1536.658373288802</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U15" t="n">
-        <v>1297.085247616349</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="V15" t="n">
-        <v>1054.005529519983</v>
+        <v>1079.572361960371</v>
       </c>
       <c r="W15" t="n">
-        <v>784.6069602502743</v>
+        <v>810.1737926906623</v>
       </c>
       <c r="X15" t="n">
-        <v>565.0989658669706</v>
+        <v>590.6657983073586</v>
       </c>
       <c r="Y15" t="n">
-        <v>565.0989658669706</v>
+        <v>365.0251052426863</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L16" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R16" t="n">
-        <v>109.6523243044814</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S16" t="n">
-        <v>109.6523243044814</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T16" t="n">
-        <v>109.6523243044814</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U16" t="n">
-        <v>109.6523243044814</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V16" t="n">
-        <v>109.6523243044814</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>388.0575795021006</v>
+        <v>1184.903510136792</v>
       </c>
       <c r="C17" t="n">
-        <v>34.31465285444516</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="D17" t="n">
-        <v>34.31465285444516</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="E17" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F17" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G17" t="n">
         <v>34.31465285444516</v>
@@ -5515,16 +5515,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K17" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5283691389718</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292778</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N17" t="n">
         <v>1186.279026157782</v>
@@ -5548,19 +5548,19 @@
         <v>1715.732642722258</v>
       </c>
       <c r="U17" t="n">
-        <v>1515.487399796029</v>
+        <v>1526.213069556759</v>
       </c>
       <c r="V17" t="n">
-        <v>1515.487399796029</v>
+        <v>1526.213069556759</v>
       </c>
       <c r="W17" t="n">
-        <v>1515.487399796029</v>
+        <v>1184.903510136792</v>
       </c>
       <c r="X17" t="n">
-        <v>1152.070516670063</v>
+        <v>1184.903510136792</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.9234788736494</v>
+        <v>1184.903510136792</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>867.9669970985512</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="C18" t="n">
-        <v>678.5547228315149</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="D18" t="n">
-        <v>517.7746065925467</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="E18" t="n">
-        <v>344.2114027139611</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="F18" t="n">
         <v>183.7836864312052</v>
@@ -5594,16 +5594,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K18" t="n">
-        <v>112.3287381944631</v>
+        <v>112.3287381944628</v>
       </c>
       <c r="L18" t="n">
-        <v>395.2338702498412</v>
+        <v>395.2338702498411</v>
       </c>
       <c r="M18" t="n">
-        <v>770.1254798029028</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N18" t="n">
         <v>1173.359244302914</v>
@@ -5618,28 +5618,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.878304775051</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U18" t="n">
-        <v>1234.878304775051</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="V18" t="n">
-        <v>1234.878304775051</v>
+        <v>1079.572361960371</v>
       </c>
       <c r="W18" t="n">
-        <v>1234.878304775051</v>
+        <v>810.1737926906623</v>
       </c>
       <c r="X18" t="n">
-        <v>1234.878304775051</v>
+        <v>590.6657983073586</v>
       </c>
       <c r="Y18" t="n">
-        <v>1046.502850025486</v>
+        <v>365.0251052426863</v>
       </c>
     </row>
     <row r="19">
@@ -5676,34 +5676,34 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L19" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M19" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P19" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q19" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R19" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S19" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T19" t="n">
-        <v>34.31465285444516</v>
+        <v>325.8513534943079</v>
       </c>
       <c r="U19" t="n">
         <v>34.31465285444516</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>978.9465481215775</v>
+        <v>752.9036291620798</v>
       </c>
       <c r="C20" t="n">
-        <v>978.9465481215775</v>
+        <v>752.9036291620798</v>
       </c>
       <c r="D20" t="n">
-        <v>978.9465481215775</v>
+        <v>411.7196295234664</v>
       </c>
       <c r="E20" t="n">
-        <v>978.9465481215775</v>
+        <v>411.7196295234664</v>
       </c>
       <c r="F20" t="n">
-        <v>978.9465481215775</v>
+        <v>411.7196295234664</v>
       </c>
       <c r="G20" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H20" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.2644088760303</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193755</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389724</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292784</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N20" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O20" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P20" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R20" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S20" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T20" t="n">
-        <v>1617.654568137158</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U20" t="n">
-        <v>1365.093585917992</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V20" t="n">
-        <v>1365.093585917992</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="W20" t="n">
-        <v>1365.093585917992</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="X20" t="n">
-        <v>1365.093585917992</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="Y20" t="n">
-        <v>978.9465481215775</v>
+        <v>752.9036291620798</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>153.8059888862266</v>
+        <v>565.6373823734916</v>
       </c>
       <c r="C21" t="n">
-        <v>153.8059888862266</v>
+        <v>565.6373823734916</v>
       </c>
       <c r="D21" t="n">
-        <v>153.8059888862266</v>
+        <v>404.8572661345233</v>
       </c>
       <c r="E21" t="n">
-        <v>153.8059888862266</v>
+        <v>231.2940622559378</v>
       </c>
       <c r="F21" t="n">
-        <v>153.8059888862266</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G21" t="n">
-        <v>153.8059888862266</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H21" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>54.40930111025868</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K21" t="n">
-        <v>54.40930111025868</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L21" t="n">
-        <v>337.3144331656368</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M21" t="n">
-        <v>712.2060427186984</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N21" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O21" t="n">
-        <v>1428.572841265604</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P21" t="n">
-        <v>1657.813205638054</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S21" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T21" t="n">
-        <v>1234.878304775052</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U21" t="n">
-        <v>1234.878304775052</v>
+        <v>1476.159517049805</v>
       </c>
       <c r="V21" t="n">
-        <v>991.798586678686</v>
+        <v>1233.079798953439</v>
       </c>
       <c r="W21" t="n">
-        <v>722.4000174089773</v>
+        <v>963.6812296837303</v>
       </c>
       <c r="X21" t="n">
-        <v>502.8920230256737</v>
+        <v>744.1732353004267</v>
       </c>
       <c r="Y21" t="n">
-        <v>277.2513299610013</v>
+        <v>744.1732353004267</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
-        <v>1423.105386587382</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L22" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M22" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N22" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P22" t="n">
-        <v>1715.732642722259</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q22" t="n">
-        <v>1715.732642722259</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R22" t="n">
-        <v>1539.576893307803</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S22" t="n">
-        <v>1415.189620196682</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T22" t="n">
-        <v>1415.189620196682</v>
+        <v>325.8513534943079</v>
       </c>
       <c r="U22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y22" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>195.2327026183711</v>
+        <v>846.2142393373525</v>
       </c>
       <c r="C23" t="n">
-        <v>195.2327026183711</v>
+        <v>846.2142393373525</v>
       </c>
       <c r="D23" t="n">
-        <v>34.31465285444516</v>
+        <v>846.2142393373525</v>
       </c>
       <c r="E23" t="n">
-        <v>34.31465285444516</v>
+        <v>470.9830150326695</v>
       </c>
       <c r="F23" t="n">
-        <v>34.31465285444516</v>
+        <v>63.71104569932254</v>
       </c>
       <c r="G23" t="n">
-        <v>34.31465285444516</v>
+        <v>63.71104569932254</v>
       </c>
       <c r="H23" t="n">
         <v>34.31465285444516</v>
@@ -5989,10 +5989,10 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602996</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193752</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L23" t="n">
         <v>525.528369138972</v>
@@ -6001,7 +6001,7 @@
         <v>856.6460009292779</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
         <v>1460.632785841149</v>
@@ -6025,16 +6025,16 @@
         <v>1610.227176505315</v>
       </c>
       <c r="V23" t="n">
-        <v>1286.106182960717</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W23" t="n">
-        <v>944.7966235407509</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X23" t="n">
-        <v>581.3797404147851</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="Y23" t="n">
-        <v>195.2327026183711</v>
+        <v>1224.080138708901</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>550.1564916546226</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C24" t="n">
-        <v>360.7442173875863</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D24" t="n">
-        <v>360.7442173875863</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E24" t="n">
-        <v>187.1810135090008</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F24" t="n">
-        <v>187.1810135090008</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G24" t="n">
-        <v>37.71197993224069</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H24" t="n">
         <v>34.31465285444516</v>
@@ -6068,52 +6068,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>54.40930111025871</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K24" t="n">
-        <v>215.5091216889815</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L24" t="n">
-        <v>498.4142537443597</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M24" t="n">
-        <v>873.3058632974213</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N24" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O24" t="n">
-        <v>1589.672661844326</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P24" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q24" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S24" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T24" t="n">
-        <v>1234.878304775052</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U24" t="n">
-        <v>995.3051791025987</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V24" t="n">
-        <v>995.3051791025987</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W24" t="n">
-        <v>995.3051791025987</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X24" t="n">
-        <v>775.797184719295</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y24" t="n">
-        <v>550.1564916546226</v>
+        <v>223.7269271214815</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.31465285444516</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="C25" t="n">
-        <v>34.31465285444516</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="D25" t="n">
-        <v>34.31465285444516</v>
+        <v>114.3264165135855</v>
       </c>
       <c r="E25" t="n">
-        <v>34.31465285444516</v>
+        <v>114.3264165135855</v>
       </c>
       <c r="F25" t="n">
         <v>34.31465285444516</v>
@@ -6150,7 +6150,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L25" t="n">
         <v>105.4471208306433</v>
@@ -6159,40 +6159,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N25" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>315.4306320098958</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P25" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q25" t="n">
-        <v>334.8576753800223</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="R25" t="n">
-        <v>334.8576753800223</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="S25" t="n">
-        <v>334.8576753800223</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="T25" t="n">
-        <v>334.8576753800223</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="U25" t="n">
-        <v>334.8576753800223</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="V25" t="n">
-        <v>334.8576753800223</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="W25" t="n">
-        <v>334.8576753800223</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="X25" t="n">
-        <v>253.6492718586557</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.31465285444516</v>
+        <v>260.9755581809701</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>193.0762431536119</v>
+        <v>752.9036291620803</v>
       </c>
       <c r="C26" t="n">
-        <v>193.0762431536119</v>
+        <v>752.9036291620803</v>
       </c>
       <c r="D26" t="n">
-        <v>193.0762431536119</v>
+        <v>752.9036291620803</v>
       </c>
       <c r="E26" t="n">
-        <v>193.0762431536119</v>
+        <v>752.9036291620803</v>
       </c>
       <c r="F26" t="n">
-        <v>193.0762431536119</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="G26" t="n">
-        <v>193.0762431536119</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444518</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I26" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K26" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389722</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N26" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O26" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P26" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q26" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S26" t="n">
-        <v>1413.54859321015</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T26" t="n">
-        <v>1195.201146295158</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U26" t="n">
-        <v>942.6401640759917</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V26" t="n">
-        <v>942.6401640759917</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="W26" t="n">
-        <v>942.6401640759917</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="X26" t="n">
-        <v>579.2232809500259</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="Y26" t="n">
-        <v>193.0762431536119</v>
+        <v>752.9036291620803</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1069.118384851047</v>
+        <v>621.0296584111352</v>
       </c>
       <c r="C27" t="n">
-        <v>879.7061105840106</v>
+        <v>621.0296584111352</v>
       </c>
       <c r="D27" t="n">
-        <v>718.9259943450423</v>
+        <v>460.2495421721669</v>
       </c>
       <c r="E27" t="n">
-        <v>545.3627904664568</v>
+        <v>286.6863382935813</v>
       </c>
       <c r="F27" t="n">
-        <v>384.9350741837009</v>
+        <v>126.2586220108254</v>
       </c>
       <c r="G27" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I27" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025874</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K27" t="n">
-        <v>112.3287381944637</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L27" t="n">
-        <v>395.2338702498419</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M27" t="n">
-        <v>770.1254798029036</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N27" t="n">
-        <v>1173.359244302915</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O27" t="n">
-        <v>1486.492278349809</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P27" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q27" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S27" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T27" t="n">
-        <v>1715.732642722259</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U27" t="n">
-        <v>1715.732642722259</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="V27" t="n">
-        <v>1715.732642722259</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W27" t="n">
-        <v>1692.802925225958</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="X27" t="n">
-        <v>1473.294930842654</v>
+        <v>799.5655113380703</v>
       </c>
       <c r="Y27" t="n">
-        <v>1247.654237777982</v>
+        <v>799.5655113380703</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L28" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M28" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N28" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O28" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P28" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q28" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R28" t="n">
-        <v>1715.732642722259</v>
+        <v>257.5493975016237</v>
       </c>
       <c r="S28" t="n">
-        <v>1715.732642722259</v>
+        <v>257.5493975016237</v>
       </c>
       <c r="T28" t="n">
-        <v>1715.732642722259</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="U28" t="n">
-        <v>1662.774484019358</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y28" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="29">
@@ -6439,58 +6439,58 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>871.0801527505599</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="C29" t="n">
-        <v>517.3372261029045</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="D29" t="n">
-        <v>517.3372261029045</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="E29" t="n">
-        <v>517.3372261029045</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F29" t="n">
-        <v>110.0652567695575</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G29" t="n">
-        <v>110.0652567695575</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H29" t="n">
-        <v>110.0652567695575</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K29" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389722</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N29" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q29" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S29" t="n">
-        <v>1413.54859321015</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T29" t="n">
         <v>1195.201146295158</v>
@@ -6499,16 +6499,16 @@
         <v>1195.201146295158</v>
       </c>
       <c r="V29" t="n">
-        <v>871.0801527505599</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="W29" t="n">
-        <v>871.0801527505599</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="X29" t="n">
-        <v>871.0801527505599</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="Y29" t="n">
-        <v>871.0801527505599</v>
+        <v>1195.201146295158</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1009.23761171038</v>
+        <v>606.0711073233401</v>
       </c>
       <c r="C30" t="n">
-        <v>879.7061105840106</v>
+        <v>416.6588330563038</v>
       </c>
       <c r="D30" t="n">
-        <v>718.9259943450423</v>
+        <v>416.6588330563038</v>
       </c>
       <c r="E30" t="n">
-        <v>545.3627904664568</v>
+        <v>243.0956291777183</v>
       </c>
       <c r="F30" t="n">
-        <v>384.9350741837009</v>
+        <v>82.66791289496237</v>
       </c>
       <c r="G30" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>54.40930111025874</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K30" t="n">
-        <v>215.5091216889815</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L30" t="n">
-        <v>498.4142537443598</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M30" t="n">
-        <v>873.3058632974214</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N30" t="n">
-        <v>1276.539627797433</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O30" t="n">
-        <v>1589.672661844327</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P30" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S30" t="n">
-        <v>1448.884598007118</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T30" t="n">
-        <v>1234.878304775052</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="U30" t="n">
-        <v>1234.878304775052</v>
+        <v>1297.08524761635</v>
       </c>
       <c r="V30" t="n">
-        <v>1234.878304775052</v>
+        <v>1054.005529519984</v>
       </c>
       <c r="W30" t="n">
-        <v>1234.878304775052</v>
+        <v>784.6069602502752</v>
       </c>
       <c r="X30" t="n">
-        <v>1234.878304775052</v>
+        <v>784.6069602502752</v>
       </c>
       <c r="Y30" t="n">
-        <v>1009.23761171038</v>
+        <v>784.6069602502752</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>87.27281155734576</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="C31" t="n">
-        <v>87.27281155734576</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="D31" t="n">
-        <v>87.27281155734576</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="E31" t="n">
-        <v>87.27281155734576</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="F31" t="n">
-        <v>87.27281155734576</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>42.23041924514577</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L31" t="n">
         <v>105.4471208306433</v>
       </c>
       <c r="M31" t="n">
-        <v>180.6961586662946</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N31" t="n">
-        <v>262.1720788316466</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O31" t="n">
-        <v>315.4306320098959</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P31" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q31" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R31" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S31" t="n">
-        <v>334.8576753800224</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="T31" t="n">
-        <v>334.8576753800224</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="U31" t="n">
-        <v>334.8576753800224</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="V31" t="n">
-        <v>87.27281155734576</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="W31" t="n">
-        <v>87.27281155734576</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="X31" t="n">
-        <v>87.27281155734576</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="Y31" t="n">
-        <v>87.27281155734576</v>
+        <v>204.0671920298242</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>166.353710204628</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="C32" t="n">
-        <v>166.353710204628</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="D32" t="n">
-        <v>166.353710204628</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E32" t="n">
-        <v>166.353710204628</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F32" t="n">
-        <v>166.353710204628</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G32" t="n">
-        <v>166.353710204628</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H32" t="n">
-        <v>166.353710204628</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602939</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193758</v>
+        <v>253.8975067193744</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389727</v>
+        <v>525.5283691389714</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292788</v>
+        <v>856.6460009292773</v>
       </c>
       <c r="N32" t="n">
-        <v>1186.279026157784</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P32" t="n">
-        <v>1650.639799716937</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q32" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.54859321015</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T32" t="n">
-        <v>1195.201146295158</v>
+        <v>1435.946938620001</v>
       </c>
       <c r="U32" t="n">
-        <v>1195.201146295158</v>
+        <v>1183.385956400834</v>
       </c>
       <c r="V32" t="n">
-        <v>871.0801527505604</v>
+        <v>1183.385956400834</v>
       </c>
       <c r="W32" t="n">
-        <v>529.7705933305938</v>
+        <v>842.0763969808679</v>
       </c>
       <c r="X32" t="n">
-        <v>166.353710204628</v>
+        <v>842.0763969808679</v>
       </c>
       <c r="Y32" t="n">
-        <v>166.353710204628</v>
+        <v>455.9293591844538</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>223.7269271214815</v>
+        <v>557.717847282823</v>
       </c>
       <c r="C33" t="n">
-        <v>34.31465285444519</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="D33" t="n">
-        <v>34.31465285444519</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E33" t="n">
-        <v>34.31465285444519</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F33" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G33" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H33" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I33" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025875</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K33" t="n">
-        <v>215.5091216889815</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L33" t="n">
-        <v>498.4142537443598</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M33" t="n">
-        <v>873.3058632974214</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N33" t="n">
-        <v>1276.539627797433</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O33" t="n">
-        <v>1589.672661844327</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P33" t="n">
-        <v>1625.193464940062</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q33" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1715.732642722259</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S33" t="n">
-        <v>1593.961179383682</v>
+        <v>1450.800956927443</v>
       </c>
       <c r="T33" t="n">
-        <v>1379.954886151616</v>
+        <v>1450.800956927443</v>
       </c>
       <c r="U33" t="n">
-        <v>1140.381760479163</v>
+        <v>1450.800956927443</v>
       </c>
       <c r="V33" t="n">
-        <v>897.3020423827976</v>
+        <v>1450.800956927443</v>
       </c>
       <c r="W33" t="n">
-        <v>627.9034731130889</v>
+        <v>1181.402387657734</v>
       </c>
       <c r="X33" t="n">
-        <v>627.9034731130889</v>
+        <v>961.8943932744305</v>
       </c>
       <c r="Y33" t="n">
-        <v>402.2627800484166</v>
+        <v>736.2537002097581</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>158.7019259655668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C34" t="n">
-        <v>158.7019259655668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D34" t="n">
-        <v>158.7019259655668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E34" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F34" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G34" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H34" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I34" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J34" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K34" t="n">
-        <v>42.23041924514577</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L34" t="n">
         <v>105.4471208306433</v>
       </c>
       <c r="M34" t="n">
-        <v>180.6961586662946</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N34" t="n">
-        <v>262.1720788316466</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O34" t="n">
-        <v>315.4306320098959</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P34" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q34" t="n">
-        <v>334.8576753800224</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="R34" t="n">
-        <v>158.7019259655668</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="S34" t="n">
-        <v>158.7019259655668</v>
+        <v>34.52688262414529</v>
       </c>
       <c r="T34" t="n">
-        <v>158.7019259655668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="U34" t="n">
-        <v>158.7019259655668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V34" t="n">
-        <v>158.7019259655668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W34" t="n">
-        <v>158.7019259655668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X34" t="n">
-        <v>158.7019259655668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y34" t="n">
-        <v>158.7019259655668</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1013.745749806112</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C35" t="n">
-        <v>1013.745749806112</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D35" t="n">
-        <v>1013.745749806112</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E35" t="n">
-        <v>638.5145255014288</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F35" t="n">
-        <v>231.2425561680818</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H35" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I35" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602993</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8975067193752</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389723</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292783</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N35" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P35" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S35" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T35" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U35" t="n">
-        <v>1715.732642722259</v>
+        <v>1503.05403256834</v>
       </c>
       <c r="V35" t="n">
-        <v>1391.611649177661</v>
+        <v>1503.05403256834</v>
       </c>
       <c r="W35" t="n">
-        <v>1391.611649177661</v>
+        <v>1161.744473148374</v>
       </c>
       <c r="X35" t="n">
-        <v>1391.611649177661</v>
+        <v>798.327590022408</v>
       </c>
       <c r="Y35" t="n">
-        <v>1391.611649177661</v>
+        <v>412.180552225994</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>558.0702472390352</v>
+        <v>825.2000576322059</v>
       </c>
       <c r="C36" t="n">
-        <v>368.657972971999</v>
+        <v>635.7877833651696</v>
       </c>
       <c r="D36" t="n">
-        <v>207.8778567330307</v>
+        <v>475.0076671262013</v>
       </c>
       <c r="E36" t="n">
-        <v>34.31465285444518</v>
+        <v>301.4444632476158</v>
       </c>
       <c r="F36" t="n">
-        <v>34.31465285444518</v>
+        <v>141.0167469648599</v>
       </c>
       <c r="G36" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H36" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I36" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K36" t="n">
-        <v>112.3287381944637</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L36" t="n">
-        <v>395.2338702498419</v>
+        <v>304.6946924676439</v>
       </c>
       <c r="M36" t="n">
-        <v>770.1254798029036</v>
+        <v>679.5863020207055</v>
       </c>
       <c r="N36" t="n">
-        <v>1173.359244302915</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O36" t="n">
-        <v>1486.492278349809</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P36" t="n">
-        <v>1715.732642722259</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q36" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1694.233074980021</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S36" t="n">
-        <v>1694.233074980021</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T36" t="n">
-        <v>1694.233074980021</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U36" t="n">
-        <v>1694.233074980021</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="V36" t="n">
-        <v>1451.153356883655</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="W36" t="n">
-        <v>1181.754787613946</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="X36" t="n">
-        <v>962.2467932306427</v>
+        <v>1229.376603623813</v>
       </c>
       <c r="Y36" t="n">
-        <v>736.6061001659702</v>
+        <v>1003.735910559141</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1584.942159372061</v>
+        <v>115.5230563758116</v>
       </c>
       <c r="C37" t="n">
-        <v>1584.942159372061</v>
+        <v>115.5230563758116</v>
       </c>
       <c r="D37" t="n">
-        <v>1584.942159372061</v>
+        <v>115.5230563758116</v>
       </c>
       <c r="E37" t="n">
-        <v>1584.942159372061</v>
+        <v>115.5230563758116</v>
       </c>
       <c r="F37" t="n">
-        <v>1584.942159372061</v>
+        <v>115.5230563758116</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W37" t="n">
-        <v>1584.942159372061</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X37" t="n">
-        <v>1584.942159372061</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y37" t="n">
-        <v>1584.942159372061</v>
+        <v>115.5230563758116</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1715.732642722259</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="C38" t="n">
-        <v>1715.732642722259</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="D38" t="n">
-        <v>1715.732642722259</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E38" t="n">
-        <v>1386.218517454924</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F38" t="n">
-        <v>978.9465481215775</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G38" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H38" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I38" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193758</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389727</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292788</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157784</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P38" t="n">
-        <v>1650.639799716937</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q38" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R38" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722259</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722259</v>
+        <v>1205.493280106834</v>
       </c>
       <c r="X38" t="n">
-        <v>1715.732642722259</v>
+        <v>842.0763969808679</v>
       </c>
       <c r="Y38" t="n">
-        <v>1715.732642722259</v>
+        <v>455.9293591844538</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>37.67820428854901</v>
+        <v>518.5325422357548</v>
       </c>
       <c r="C39" t="n">
-        <v>37.67820428854901</v>
+        <v>518.5325422357548</v>
       </c>
       <c r="D39" t="n">
-        <v>37.67820428854901</v>
+        <v>518.5325422357548</v>
       </c>
       <c r="E39" t="n">
-        <v>37.67820428854901</v>
+        <v>344.9693383571692</v>
       </c>
       <c r="F39" t="n">
-        <v>37.67820428854901</v>
+        <v>184.5416220744133</v>
       </c>
       <c r="G39" t="n">
-        <v>37.67820428854901</v>
+        <v>35.07258849765324</v>
       </c>
       <c r="H39" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I39" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>34.31465285444519</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K39" t="n">
-        <v>112.3287381944641</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L39" t="n">
-        <v>395.2338702498424</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M39" t="n">
-        <v>770.125479802904</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N39" t="n">
-        <v>1173.359244302915</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O39" t="n">
-        <v>1486.492278349809</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P39" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q39" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440574</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S39" t="n">
-        <v>1448.884598007118</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T39" t="n">
-        <v>1234.878304775053</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U39" t="n">
-        <v>995.3051791025996</v>
+        <v>1476.159517049805</v>
       </c>
       <c r="V39" t="n">
-        <v>752.2254610062337</v>
+        <v>1233.079798953439</v>
       </c>
       <c r="W39" t="n">
-        <v>482.826891736525</v>
+        <v>963.6812296837307</v>
       </c>
       <c r="X39" t="n">
-        <v>263.3188973532214</v>
+        <v>744.1732353004271</v>
       </c>
       <c r="Y39" t="n">
-        <v>37.67820428854901</v>
+        <v>518.5325422357548</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1715.732642722259</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="C40" t="n">
-        <v>1715.732642722259</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="D40" t="n">
-        <v>1715.732642722259</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="E40" t="n">
-        <v>1715.732642722259</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="F40" t="n">
-        <v>1715.732642722259</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="G40" t="n">
-        <v>1715.732642722259</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H40" t="n">
-        <v>1562.091811424305</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587383</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.571126008532</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352133</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722259</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722259</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722259</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722259</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="X40" t="n">
-        <v>1715.732642722259</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="Y40" t="n">
-        <v>1715.732642722259</v>
+        <v>204.0671920298242</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.794881312374</v>
+        <v>561.7666346619935</v>
       </c>
       <c r="C41" t="n">
-        <v>1166.794881312374</v>
+        <v>208.0237080143381</v>
       </c>
       <c r="D41" t="n">
-        <v>1166.794881312374</v>
+        <v>208.0237080143381</v>
       </c>
       <c r="E41" t="n">
-        <v>791.5636570076908</v>
+        <v>208.0237080143381</v>
       </c>
       <c r="F41" t="n">
-        <v>791.5636570076908</v>
+        <v>208.0237080143381</v>
       </c>
       <c r="G41" t="n">
-        <v>369.9489506776823</v>
+        <v>208.0237080143381</v>
       </c>
       <c r="H41" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I41" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
         <v>79.26440887602985</v>
       </c>
       <c r="K41" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5283691389722</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292781</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N41" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O41" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P41" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q41" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S41" t="n">
-        <v>1552.941919108788</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T41" t="n">
-        <v>1552.941919108788</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U41" t="n">
-        <v>1552.941919108788</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="V41" t="n">
-        <v>1552.941919108788</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="W41" t="n">
-        <v>1552.941919108788</v>
+        <v>925.1835177879593</v>
       </c>
       <c r="X41" t="n">
-        <v>1552.941919108788</v>
+        <v>561.7666346619935</v>
       </c>
       <c r="Y41" t="n">
-        <v>1166.794881312374</v>
+        <v>561.7666346619935</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>384.5070433604497</v>
+        <v>718.4979635217912</v>
       </c>
       <c r="C42" t="n">
-        <v>195.0947690934134</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D42" t="n">
-        <v>34.31465285444517</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E42" t="n">
-        <v>34.31465285444517</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F42" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G42" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H42" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I42" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>215.5091216889815</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L42" t="n">
-        <v>498.4142537443597</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M42" t="n">
-        <v>873.3058632974213</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N42" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O42" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P42" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q42" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T42" t="n">
-        <v>1517.163278677523</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U42" t="n">
-        <v>1277.59015300507</v>
+        <v>1611.581073166411</v>
       </c>
       <c r="V42" t="n">
-        <v>1277.59015300507</v>
+        <v>1611.581073166411</v>
       </c>
       <c r="W42" t="n">
-        <v>1008.191583735361</v>
+        <v>1342.182503896702</v>
       </c>
       <c r="X42" t="n">
-        <v>788.6835893520572</v>
+        <v>1122.674509513399</v>
       </c>
       <c r="Y42" t="n">
-        <v>563.0428962873848</v>
+        <v>897.0338164487264</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.31465285444517</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="C43" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D43" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E43" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
         <v>42.23041924514574</v>
@@ -7584,37 +7584,37 @@
         <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>315.4306320098958</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P43" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q43" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>158.7019259655666</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S43" t="n">
-        <v>158.7019259655666</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T43" t="n">
-        <v>34.31465285444517</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="U43" t="n">
-        <v>34.31465285444517</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="V43" t="n">
-        <v>34.31465285444517</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="W43" t="n">
-        <v>34.31465285444517</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="X43" t="n">
-        <v>34.31465285444517</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.31465285444517</v>
+        <v>111.6229307328436</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>797.1133588230673</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C44" t="n">
-        <v>797.1133588230673</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D44" t="n">
-        <v>455.9293591844538</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E44" t="n">
-        <v>455.9293591844538</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F44" t="n">
         <v>455.9293591844538</v>
       </c>
       <c r="G44" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H44" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I44" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602992</v>
+        <v>79.26440887602965</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389722</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O44" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q44" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S44" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1519.054059427092</v>
+        <v>1604.484111015315</v>
       </c>
       <c r="U44" t="n">
-        <v>1266.493077207926</v>
+        <v>1604.484111015315</v>
       </c>
       <c r="V44" t="n">
-        <v>1138.422918243034</v>
+        <v>1604.484111015315</v>
       </c>
       <c r="W44" t="n">
-        <v>797.1133588230673</v>
+        <v>1604.484111015315</v>
       </c>
       <c r="X44" t="n">
-        <v>797.1133588230673</v>
+        <v>1241.06722788935</v>
       </c>
       <c r="Y44" t="n">
-        <v>797.1133588230673</v>
+        <v>1241.06722788935</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>125.451979570234</v>
+        <v>355.5224853761694</v>
       </c>
       <c r="C45" t="n">
-        <v>115.9747045751594</v>
+        <v>355.5224853761694</v>
       </c>
       <c r="D45" t="n">
-        <v>115.9747045751594</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="E45" t="n">
-        <v>115.9747045751594</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F45" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G45" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I45" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K45" t="n">
         <v>195.4144734331679</v>
       </c>
       <c r="L45" t="n">
-        <v>478.3196054885462</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M45" t="n">
-        <v>853.2112150416078</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N45" t="n">
-        <v>1256.444979541619</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O45" t="n">
-        <v>1569.578013588513</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S45" t="n">
-        <v>1536.658373288803</v>
+        <v>1552.722585862673</v>
       </c>
       <c r="T45" t="n">
-        <v>1322.652080056738</v>
+        <v>1552.722585862673</v>
       </c>
       <c r="U45" t="n">
-        <v>1083.078954384285</v>
+        <v>1313.14946019022</v>
       </c>
       <c r="V45" t="n">
-        <v>839.9992362879186</v>
+        <v>1070.069742093854</v>
       </c>
       <c r="W45" t="n">
-        <v>570.6006670182099</v>
+        <v>800.6711728241453</v>
       </c>
       <c r="X45" t="n">
-        <v>351.0926726349063</v>
+        <v>581.1631784408416</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.451979570234</v>
+        <v>355.5224853761694</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>334.8576753800223</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C46" t="n">
-        <v>334.8576753800223</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D46" t="n">
-        <v>317.752050259164</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E46" t="n">
-        <v>174.6448369134822</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J46" t="n">
-        <v>34.31465285444517</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
         <v>42.23041924514574</v>
@@ -7821,37 +7821,37 @@
         <v>262.1720788316464</v>
       </c>
       <c r="O46" t="n">
-        <v>315.4306320098958</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P46" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q46" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R46" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S46" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T46" t="n">
-        <v>334.8576753800223</v>
+        <v>111.6229307328436</v>
       </c>
       <c r="U46" t="n">
-        <v>334.8576753800223</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V46" t="n">
-        <v>334.8576753800223</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W46" t="n">
-        <v>334.8576753800223</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X46" t="n">
-        <v>334.8576753800223</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y46" t="n">
-        <v>334.8576753800223</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
   </sheetData>
@@ -8768,13 +8768,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K12" t="n">
-        <v>8.64638209049167</v>
+        <v>87.44848849455063</v>
       </c>
       <c r="L12" t="n">
-        <v>207.3553107283658</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
         <v>301.77688131</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9005,10 +9005,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491642</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9017,7 +9017,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>114.9375340526873</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>123.4784739253757</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,10 +9242,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K18" t="n">
-        <v>67.15086399372845</v>
+        <v>87.44848849454986</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9263,7 +9263,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9479,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K21" t="n">
-        <v>8.64638209049167</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.1808494245549</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,7 +9716,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K24" t="n">
         <v>171.373473584151</v>
@@ -9728,16 +9728,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>310.6138585746227</v>
+        <v>135.2351585535095</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>102.141264488257</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.67636752131753</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K27" t="n">
-        <v>67.1508639937289</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9971,10 +9971,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890789</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.67636752131752</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,7 +10190,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K30" t="n">
         <v>171.373473584151</v>
@@ -10208,10 +10208,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>10.68754955674427</v>
+        <v>122.4388889890789</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K33" t="n">
-        <v>171.373473584151</v>
+        <v>87.4484884945504</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10445,10 +10445,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P33" t="n">
-        <v>10.68754955674472</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10664,13 +10664,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>61.40936639976314</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K36" t="n">
-        <v>87.44848849455069</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
-        <v>240.3045437566416</v>
+        <v>64.92584373552825</v>
       </c>
       <c r="M36" t="n">
         <v>301.77688131</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.67636752131752</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10901,10 +10901,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>61.40936639976314</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>87.44848849455113</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10916,13 +10916,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O39" t="n">
-        <v>255.2227828913207</v>
+        <v>151.0001733008984</v>
       </c>
       <c r="P39" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.67636752131752</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11138,7 +11138,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K42" t="n">
         <v>171.373473584151</v>
@@ -11150,7 +11150,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N42" t="n">
-        <v>114.9375340526877</v>
+        <v>226.6888734850216</v>
       </c>
       <c r="O42" t="n">
         <v>255.2227828913207</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315036</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11375,7 +11375,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>61.40936639976316</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K45" t="n">
         <v>171.373473584151</v>
@@ -11387,16 +11387,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
-        <v>310.6138585746227</v>
+        <v>226.6888734850216</v>
       </c>
       <c r="O45" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P45" t="n">
-        <v>122.4388889890788</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.67636752131753</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>362.6509886839257</v>
       </c>
       <c r="F11" t="n">
         <v>403.1992496400135</v>
@@ -23275,10 +23275,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>313.5117849254077</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
         <v>337.8964638257669</v>
@@ -23326,7 +23326,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,19 +23345,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>157.0766988388093</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>7.338108896389883</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -23439,7 +23439,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>24.58419038258737</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
         <v>224.1841888012565</v>
@@ -23475,13 +23475,13 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
       </c>
       <c r="X13" t="n">
-        <v>221.9194554082425</v>
+        <v>169.4908782923713</v>
       </c>
       <c r="Y13" t="n">
         <v>217.1412728141684</v>
@@ -23503,19 +23503,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>171.3140416115351</v>
       </c>
       <c r="W14" t="n">
-        <v>121.8101681277586</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
         <v>359.7827142947061</v>
@@ -23576,25 +23576,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>45.19030735741342</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>8.089146900999708</v>
       </c>
       <c r="H15" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23676,7 +23676,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R16" t="n">
-        <v>24.58419038258737</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
         <v>224.1841888012565</v>
@@ -23709,13 +23709,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6213336334641</v>
+        <v>281.3944484224782</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W16" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>221.9194554082425</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>332.2779548450047</v>
@@ -23788,19 +23788,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>51.79258190000814</v>
+        <v>62.41099496313035</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="18">
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>169.1490616140992</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>36.89258593195646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23913,7 +23913,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>174.1840844483081</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
-        <v>221.0023972007068</v>
+        <v>212.0861385338497</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23974,7 +23974,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>371.4789120616362</v>
@@ -23983,13 +23983,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>43.7676323643775</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>119.0666786065919</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54.53960673363878</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>111.7881670534431</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
         <v>80.84345120350706</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -24174,16 +24174,16 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S22" t="n">
-        <v>101.0407884212463</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T22" t="n">
-        <v>221.0023972007068</v>
+        <v>212.0861385338498</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>178.4632903759406</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>303.1755259285761</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24293,16 +24293,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
-        <v>114.933068864446</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
         <v>80.84345120350704</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24341,13 +24341,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>97.29219807573534</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>59.71523619589769</v>
       </c>
       <c r="G25" t="n">
         <v>168.0550137836253</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>174.3941919203111</v>
@@ -24429,10 +24429,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
-        <v>141.5231359220896</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>294.7037845649111</v>
       </c>
       <c r="G26" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>175.1039804488296</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I26" t="n">
-        <v>185.5090622027477</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24524,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>56.94981377617603</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886882</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>244.0041632556738</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -24624,7 +24624,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58429473553583</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,22 +24645,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.14329602706148</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R28" t="n">
-        <v>174.3941919203111</v>
+        <v>97.85899682069669</v>
       </c>
       <c r="S28" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T28" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>236.1927565175928</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
         <v>290.3107070893353</v>
@@ -24682,25 +24682,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>42.79909246205301</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
-        <v>110.5159643267865</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>59.28196540926052</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>100.1046158008805</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>115.6264366677537</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>160.0829940331247</v>
@@ -24861,7 +24861,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J31" t="n">
-        <v>74.58429473553583</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.14329602706148</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R31" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S31" t="n">
-        <v>224.1841888012565</v>
+        <v>94.70161028456067</v>
       </c>
       <c r="T31" t="n">
         <v>221.0023972007068</v>
@@ -24897,7 +24897,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
         <v>290.3107070893353</v>
@@ -24931,13 +24931,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
-        <v>54.79039542606677</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>43.62653693938009</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25004,10 +25004,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>147.9743432409925</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>56.72977803392936</v>
+        <v>1.897195331122333</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>18.5327408322146</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -25098,7 +25098,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J34" t="n">
-        <v>74.58429473553583</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.14329602706148</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.0023972007068</v>
+        <v>220.7922897287037</v>
       </c>
       <c r="U34" t="n">
         <v>288.6213336334641</v>
@@ -25162,19 +25162,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>222.4399349862082</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547734</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
         <v>194.7117974622146</v>
@@ -25210,19 +25210,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0353723969745</v>
+        <v>39.48354834459568</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25244,10 +25244,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9743432409925</v>
+        <v>42.33927007168194</v>
       </c>
       <c r="H36" t="n">
         <v>118.2964226714636</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>65.61146546405318</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>211.8662302997449</v>
@@ -25292,10 +25292,10 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>87.65869429747255</v>
       </c>
       <c r="H37" t="n">
         <v>160.0829940331247</v>
@@ -25335,7 +25335,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J37" t="n">
-        <v>74.58429473553583</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.14329602706148</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R37" t="n">
         <v>174.3941919203111</v>
@@ -25374,13 +25374,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>160.8281285726393</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25399,19 +25399,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>45.25992804697478</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.4504115547734</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
         <v>194.7117974622146</v>
@@ -25450,16 +25450,16 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>153.6392784456487</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25478,16 +25478,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9665067517008</v>
+        <v>117.5460663846876</v>
       </c>
       <c r="I39" t="n">
         <v>80.84345120350704</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25563,16 +25563,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>7.978571048150457</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J40" t="n">
-        <v>74.58429473553583</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.14329602706148</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R40" t="n">
         <v>174.3941919203111</v>
@@ -25602,7 +25602,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T40" t="n">
-        <v>221.0023972007068</v>
+        <v>91.51981868401091</v>
       </c>
       <c r="U40" t="n">
         <v>288.6213336334641</v>
@@ -25630,25 +25630,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>160.3059902367107</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
-        <v>33.54898108487868</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -25715,10 +25715,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>147.9743432409925</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886882</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
-        <v>15.2825598954563</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>134.0673405554398</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25788,7 +25788,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4571809719723</v>
+        <v>89.92198587235788</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
@@ -25833,13 +25833,13 @@
         <v>73.1432960270615</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S43" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T43" t="n">
-        <v>97.85899682069655</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>288.6213336334641</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1639724458418</v>
+        <v>106.0279260559685</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>194.0903262339085</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>382.2855674184499</v>
@@ -25946,16 +25946,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>178.1356492792421</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>147.9743432409925</v>
@@ -25964,7 +25964,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886882</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>15.90357044813172</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>128.2480813810611</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>168.0550137836253</v>
@@ -26076,10 +26076,10 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T46" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6213336334641</v>
+        <v>212.0861385338497</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>579089.4080327374</v>
+        <v>579089.4080327376</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>579089.4080327376</v>
+        <v>579089.4080327373</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>579089.4080327374</v>
+        <v>579089.4080327376</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>579089.4080327378</v>
+        <v>579089.4080327374</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>579089.4080327378</v>
+        <v>579089.4080327376</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>579089.4080327378</v>
+        <v>579089.4080327377</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>579089.4080327379</v>
+        <v>579089.4080327374</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>579089.4080327377</v>
+        <v>579089.4080327376</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>573255.7968646992</v>
+      </c>
+      <c r="C2" t="n">
+        <v>573255.796864699</v>
+      </c>
+      <c r="D2" t="n">
         <v>573255.7968646991</v>
-      </c>
-      <c r="C2" t="n">
-        <v>573255.7968646991</v>
-      </c>
-      <c r="D2" t="n">
-        <v>573255.7968646992</v>
       </c>
       <c r="E2" t="n">
         <v>325600.7626641425</v>
       </c>
       <c r="F2" t="n">
+        <v>325600.7626641426</v>
+      </c>
+      <c r="G2" t="n">
+        <v>325600.7626641426</v>
+      </c>
+      <c r="H2" t="n">
         <v>325600.7626641425</v>
       </c>
-      <c r="G2" t="n">
-        <v>325600.7626641425</v>
-      </c>
-      <c r="H2" t="n">
-        <v>325600.7626641428</v>
-      </c>
       <c r="I2" t="n">
-        <v>325600.7626641426</v>
+        <v>325600.7626641424</v>
       </c>
       <c r="J2" t="n">
         <v>325600.7626641425</v>
       </c>
       <c r="K2" t="n">
-        <v>325600.7626641426</v>
+        <v>325600.7626641425</v>
       </c>
       <c r="L2" t="n">
         <v>325600.7626641426</v>
       </c>
       <c r="M2" t="n">
-        <v>325600.7626641427</v>
+        <v>325600.7626641424</v>
       </c>
       <c r="N2" t="n">
-        <v>325600.7626641427</v>
+        <v>325600.7626641425</v>
       </c>
       <c r="O2" t="n">
-        <v>325600.7626641426</v>
+        <v>325600.7626641425</v>
       </c>
       <c r="P2" t="n">
         <v>325600.7626641425</v>
@@ -26429,10 +26429,10 @@
         <v>28394.46915996418</v>
       </c>
       <c r="F4" t="n">
-        <v>28394.46915996418</v>
+        <v>28394.46915996417</v>
       </c>
       <c r="G4" t="n">
-        <v>28394.46915996418</v>
+        <v>28394.46915996417</v>
       </c>
       <c r="H4" t="n">
         <v>28394.46915996418</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>36091.33751189046</v>
+      </c>
+      <c r="F5" t="n">
         <v>36091.33751189045</v>
-      </c>
-      <c r="F5" t="n">
-        <v>36091.33751189044</v>
       </c>
       <c r="G5" t="n">
         <v>36091.33751189045</v>
       </c>
       <c r="H5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="K5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="L5" t="n">
-        <v>36091.33751189048</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="N5" t="n">
-        <v>36091.33751189048</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="O5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="P5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>130548.0738114839</v>
+        <v>130503.409969432</v>
       </c>
       <c r="C6" t="n">
-        <v>130548.0738114839</v>
+        <v>130503.4099694318</v>
       </c>
       <c r="D6" t="n">
-        <v>130548.073811484</v>
+        <v>130503.4099694319</v>
       </c>
       <c r="E6" t="n">
-        <v>-235938.1958252045</v>
+        <v>-245508.0532903548</v>
       </c>
       <c r="F6" t="n">
-        <v>261114.9559922879</v>
+        <v>251545.0985271378</v>
       </c>
       <c r="G6" t="n">
-        <v>261114.9559922878</v>
+        <v>251545.0985271377</v>
       </c>
       <c r="H6" t="n">
-        <v>261114.9559922881</v>
+        <v>251545.0985271377</v>
       </c>
       <c r="I6" t="n">
-        <v>261114.955992288</v>
+        <v>251545.0985271375</v>
       </c>
       <c r="J6" t="n">
-        <v>261114.9559922879</v>
+        <v>251545.0985271377</v>
       </c>
       <c r="K6" t="n">
-        <v>261114.955992288</v>
+        <v>251545.0985271377</v>
       </c>
       <c r="L6" t="n">
-        <v>261114.9559922879</v>
+        <v>251545.0985271377</v>
       </c>
       <c r="M6" t="n">
-        <v>154223.0966180487</v>
+        <v>144653.2391528982</v>
       </c>
       <c r="N6" t="n">
-        <v>261114.955992288</v>
+        <v>251545.0985271376</v>
       </c>
       <c r="O6" t="n">
-        <v>261114.955992288</v>
+        <v>251545.0985271376</v>
       </c>
       <c r="P6" t="n">
-        <v>261114.9559922879</v>
+        <v>251545.0985271376</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="H3" t="n">
         <v>459.2752909409236</v>
       </c>
       <c r="I3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="J3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="K3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="L3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="M3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="N3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="O3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="P3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409237</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="F4" t="n">
         <v>428.9331606805645</v>
-      </c>
-      <c r="F4" t="n">
-        <v>428.9331606805644</v>
       </c>
       <c r="G4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="H4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="I4" t="n">
         <v>428.9331606805646</v>
       </c>
       <c r="J4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="K4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="L4" t="n">
-        <v>428.9331606805648</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
-        <v>428.9331606805648</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="O4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="P4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31992,43 +31992,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H14" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J14" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K14" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L14" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O14" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R14" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H15" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L15" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M15" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N15" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O15" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P15" t="n">
         <v>188.640826575339</v>
@@ -32101,16 +32101,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S15" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H16" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I16" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
@@ -32168,7 +32168,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N16" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O16" t="n">
         <v>117.0624954680243</v>
@@ -32177,19 +32177,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R16" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S16" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,43 +32229,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H17" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J17" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K17" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L17" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O17" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P17" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R17" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T17" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H18" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L18" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M18" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N18" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O18" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P18" t="n">
         <v>188.640826575339</v>
@@ -32338,16 +32338,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S18" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T18" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H19" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I19" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
@@ -32405,7 +32405,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N19" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O19" t="n">
         <v>117.0624954680243</v>
@@ -32414,19 +32414,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R19" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S19" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T19" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,28 +32700,28 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H23" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I23" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J23" t="n">
         <v>156.7051908522502</v>
       </c>
       <c r="K23" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L23" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M23" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N23" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O23" t="n">
         <v>311.0863102573771</v>
@@ -32730,16 +32730,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R23" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T23" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H24" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I24" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J24" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L24" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M24" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N24" t="n">
         <v>256.9298629953381</v>
@@ -32812,16 +32812,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S24" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T24" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H25" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I25" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L25" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M25" t="n">
         <v>129.8243252736778</v>
@@ -32888,19 +32888,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R25" t="n">
         <v>37.2389440818657</v>
       </c>
       <c r="S25" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T25" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H26" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I26" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J26" t="n">
         <v>156.7051908522502</v>
       </c>
       <c r="K26" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L26" t="n">
-        <v>291.3651677393361</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M26" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N26" t="n">
-        <v>329.4457823148398</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O26" t="n">
-        <v>311.0863102573772</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P26" t="n">
-        <v>265.5049685685167</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q26" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R26" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S26" t="n">
-        <v>42.07330931584444</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T26" t="n">
-        <v>8.082321954146305</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U26" t="n">
         <v>0.1477066262322567</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9878751540993456</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H27" t="n">
-        <v>9.540794251433155</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I27" t="n">
-        <v>34.01236824420993</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J27" t="n">
-        <v>93.33253813357021</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K27" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L27" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M27" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N27" t="n">
         <v>256.9298629953381</v>
       </c>
       <c r="O27" t="n">
-        <v>235.0406293176632</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P27" t="n">
-        <v>188.6408265753391</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.1013968636288</v>
+        <v>126.1013968636287</v>
       </c>
       <c r="R27" t="n">
-        <v>61.33491526943132</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S27" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T27" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06499178645390434</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8282013443196986</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H28" t="n">
-        <v>7.363462861315144</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I28" t="n">
-        <v>24.9062731546324</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J28" t="n">
-        <v>58.55383504340269</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K28" t="n">
-        <v>96.22193800368859</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L28" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M28" t="n">
         <v>129.8243252736778</v>
@@ -33119,25 +33119,25 @@
         <v>126.7373929903045</v>
       </c>
       <c r="O28" t="n">
-        <v>117.0624954680244</v>
+        <v>117.0624954680243</v>
       </c>
       <c r="P28" t="n">
         <v>100.1671880439024</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.3505689320795</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R28" t="n">
-        <v>37.23894408186571</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S28" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T28" t="n">
-        <v>3.538678471184166</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H29" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I29" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J29" t="n">
         <v>156.7051908522502</v>
       </c>
       <c r="K29" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L29" t="n">
-        <v>291.3651677393361</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M29" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N29" t="n">
-        <v>329.4457823148398</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O29" t="n">
-        <v>311.0863102573772</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P29" t="n">
-        <v>265.5049685685167</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q29" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R29" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S29" t="n">
-        <v>42.07330931584444</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T29" t="n">
-        <v>8.082321954146305</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U29" t="n">
         <v>0.1477066262322567</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9878751540993456</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H30" t="n">
-        <v>9.540794251433155</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I30" t="n">
-        <v>34.01236824420993</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J30" t="n">
-        <v>93.33253813357021</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K30" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L30" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M30" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N30" t="n">
         <v>256.9298629953381</v>
       </c>
       <c r="O30" t="n">
-        <v>235.0406293176632</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P30" t="n">
-        <v>188.6408265753391</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q30" t="n">
-        <v>126.1013968636288</v>
+        <v>126.1013968636287</v>
       </c>
       <c r="R30" t="n">
-        <v>61.33491526943132</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S30" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T30" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06499178645390434</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8282013443196986</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H31" t="n">
-        <v>7.363462861315144</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I31" t="n">
-        <v>24.9062731546324</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J31" t="n">
-        <v>58.55383504340269</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K31" t="n">
-        <v>96.22193800368859</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L31" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M31" t="n">
         <v>129.8243252736778</v>
@@ -33356,25 +33356,25 @@
         <v>126.7373929903045</v>
       </c>
       <c r="O31" t="n">
-        <v>117.0624954680244</v>
+        <v>117.0624954680243</v>
       </c>
       <c r="P31" t="n">
         <v>100.1671880439024</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.3505689320795</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R31" t="n">
-        <v>37.23894408186571</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S31" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T31" t="n">
-        <v>3.538678471184166</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H32" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I32" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J32" t="n">
         <v>156.7051908522502</v>
       </c>
       <c r="K32" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L32" t="n">
-        <v>291.3651677393361</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M32" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N32" t="n">
-        <v>329.4457823148398</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O32" t="n">
-        <v>311.0863102573772</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P32" t="n">
-        <v>265.5049685685167</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q32" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R32" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S32" t="n">
-        <v>42.07330931584444</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T32" t="n">
-        <v>8.082321954146305</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U32" t="n">
         <v>0.1477066262322567</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9878751540993456</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H33" t="n">
-        <v>9.540794251433155</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I33" t="n">
-        <v>34.01236824420993</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J33" t="n">
-        <v>93.33253813357021</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K33" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L33" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M33" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N33" t="n">
         <v>256.9298629953381</v>
       </c>
       <c r="O33" t="n">
-        <v>235.0406293176632</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P33" t="n">
-        <v>188.6408265753391</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q33" t="n">
-        <v>126.1013968636288</v>
+        <v>126.1013968636287</v>
       </c>
       <c r="R33" t="n">
-        <v>61.33491526943132</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S33" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T33" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06499178645390434</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8282013443196986</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H34" t="n">
-        <v>7.363462861315144</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I34" t="n">
-        <v>24.9062731546324</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J34" t="n">
-        <v>58.55383504340269</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K34" t="n">
-        <v>96.22193800368859</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L34" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M34" t="n">
         <v>129.8243252736778</v>
@@ -33593,25 +33593,25 @@
         <v>126.7373929903045</v>
       </c>
       <c r="O34" t="n">
-        <v>117.0624954680244</v>
+        <v>117.0624954680243</v>
       </c>
       <c r="P34" t="n">
         <v>100.1671880439024</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.3505689320795</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R34" t="n">
-        <v>37.23894408186571</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S34" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T34" t="n">
-        <v>3.538678471184166</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H35" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I35" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J35" t="n">
         <v>156.7051908522502</v>
       </c>
       <c r="K35" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L35" t="n">
-        <v>291.3651677393361</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M35" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N35" t="n">
-        <v>329.4457823148398</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O35" t="n">
-        <v>311.0863102573772</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P35" t="n">
-        <v>265.5049685685167</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q35" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R35" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S35" t="n">
-        <v>42.07330931584444</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T35" t="n">
-        <v>8.082321954146305</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U35" t="n">
         <v>0.1477066262322567</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9878751540993456</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H36" t="n">
-        <v>9.540794251433155</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I36" t="n">
-        <v>34.01236824420993</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J36" t="n">
-        <v>93.33253813357021</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L36" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M36" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N36" t="n">
         <v>256.9298629953381</v>
       </c>
       <c r="O36" t="n">
-        <v>235.0406293176632</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P36" t="n">
-        <v>188.6408265753391</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q36" t="n">
-        <v>126.1013968636288</v>
+        <v>126.1013968636287</v>
       </c>
       <c r="R36" t="n">
-        <v>61.33491526943132</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S36" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T36" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06499178645390434</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196986</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H37" t="n">
-        <v>7.363462861315144</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I37" t="n">
-        <v>24.9062731546324</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J37" t="n">
-        <v>58.55383504340269</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K37" t="n">
-        <v>96.22193800368859</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L37" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M37" t="n">
         <v>129.8243252736778</v>
@@ -33830,25 +33830,25 @@
         <v>126.7373929903045</v>
       </c>
       <c r="O37" t="n">
-        <v>117.0624954680244</v>
+        <v>117.0624954680243</v>
       </c>
       <c r="P37" t="n">
         <v>100.1671880439024</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.3505689320795</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R37" t="n">
-        <v>37.23894408186571</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S37" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T37" t="n">
-        <v>3.538678471184166</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H38" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I38" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J38" t="n">
         <v>156.7051908522502</v>
       </c>
       <c r="K38" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L38" t="n">
-        <v>291.3651677393361</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M38" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N38" t="n">
-        <v>329.4457823148398</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O38" t="n">
-        <v>311.0863102573772</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P38" t="n">
-        <v>265.5049685685167</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q38" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R38" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S38" t="n">
-        <v>42.07330931584444</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T38" t="n">
-        <v>8.082321954146305</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U38" t="n">
         <v>0.1477066262322567</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9878751540993456</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H39" t="n">
-        <v>9.540794251433155</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I39" t="n">
-        <v>34.01236824420993</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J39" t="n">
-        <v>93.33253813357021</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K39" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L39" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M39" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N39" t="n">
         <v>256.9298629953381</v>
       </c>
       <c r="O39" t="n">
-        <v>235.0406293176632</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P39" t="n">
-        <v>188.6408265753391</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q39" t="n">
-        <v>126.1013968636288</v>
+        <v>126.1013968636287</v>
       </c>
       <c r="R39" t="n">
-        <v>61.33491526943132</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S39" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T39" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06499178645390434</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8282013443196986</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H40" t="n">
-        <v>7.363462861315144</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I40" t="n">
-        <v>24.9062731546324</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J40" t="n">
-        <v>58.55383504340269</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K40" t="n">
-        <v>96.22193800368859</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L40" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M40" t="n">
         <v>129.8243252736778</v>
@@ -34067,25 +34067,25 @@
         <v>126.7373929903045</v>
       </c>
       <c r="O40" t="n">
-        <v>117.0624954680244</v>
+        <v>117.0624954680243</v>
       </c>
       <c r="P40" t="n">
         <v>100.1671880439024</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.3505689320795</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R40" t="n">
-        <v>37.23894408186571</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S40" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T40" t="n">
-        <v>3.538678471184166</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H41" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I41" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J41" t="n">
         <v>156.7051908522502</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H42" t="n">
         <v>9.540794251433153</v>
@@ -34210,7 +34210,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J42" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K42" t="n">
         <v>159.5201734582263</v>
@@ -34240,7 +34240,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T42" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U42" t="n">
         <v>0.06499178645390433</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H43" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I43" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J43" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K43" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L43" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M43" t="n">
         <v>129.8243252736778</v>
@@ -34316,13 +34316,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S43" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T43" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H44" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I44" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J44" t="n">
         <v>156.7051908522502</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H45" t="n">
         <v>9.540794251433153</v>
@@ -34447,7 +34447,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J45" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K45" t="n">
         <v>159.5201734582263</v>
@@ -34477,7 +34477,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T45" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U45" t="n">
         <v>0.06499178645390433</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H46" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I46" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J46" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K46" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L46" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M46" t="n">
         <v>129.8243252736778</v>
@@ -34553,13 +34553,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S46" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T46" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>78.80210640405896</v>
       </c>
       <c r="L12" t="n">
-        <v>252.8135266236214</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M12" t="n">
         <v>378.6783934879409</v>
@@ -35509,7 +35509,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K14" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L14" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M14" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O14" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P14" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M15" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N15" t="n">
-        <v>211.6305083063586</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O15" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P15" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151264</v>
+        <v>78.80210640405815</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M16" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K17" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L17" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M17" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O17" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P17" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>58.50448190323679</v>
+        <v>78.80210640405822</v>
       </c>
       <c r="L18" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M18" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N18" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P18" t="n">
         <v>231.5559236085354</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M19" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L21" t="n">
         <v>285.7627596518971</v>
@@ -36220,7 +36220,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.50448190323728</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K23" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L23" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M23" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N23" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O23" t="n">
         <v>277.1250097811783</v>
@@ -36378,7 +36378,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.29762450082177</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>162.7270914936593</v>
@@ -36448,16 +36448,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N24" t="n">
-        <v>407.3068328282941</v>
+        <v>231.9281328071808</v>
       </c>
       <c r="O24" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P24" t="n">
-        <v>127.3333140181132</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L25" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M25" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793124</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O25" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.40379396119674</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K26" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L26" t="n">
-        <v>274.3746085046435</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M26" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N26" t="n">
-        <v>332.9626517459646</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O26" t="n">
-        <v>277.1250097811784</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P26" t="n">
-        <v>191.9262766422086</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.75034647002275</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082178</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>58.50448190323729</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518972</v>
@@ -36688,10 +36688,10 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O27" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P27" t="n">
-        <v>231.5559236085355</v>
+        <v>147.630938518935</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.995723626970289</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L28" t="n">
-        <v>63.85525412676522</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M28" t="n">
-        <v>76.00912912692046</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N28" t="n">
-        <v>82.29890925793126</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O28" t="n">
-        <v>53.79651836186801</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P28" t="n">
-        <v>19.62327613144096</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.40379396119674</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K29" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L29" t="n">
-        <v>274.3746085046435</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M29" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N29" t="n">
-        <v>332.9626517459646</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O29" t="n">
-        <v>277.1250097811784</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P29" t="n">
-        <v>191.9262766422086</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.75034647002275</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.29762450082178</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>162.7270914936593</v>
@@ -36925,13 +36925,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
-        <v>35.87959908660044</v>
+        <v>147.630938518935</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.45371493151269</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.995723626970289</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L31" t="n">
-        <v>63.85525412676522</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M31" t="n">
-        <v>76.00912912692046</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N31" t="n">
-        <v>82.29890925793126</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O31" t="n">
-        <v>53.79651836186801</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P31" t="n">
-        <v>19.62327613144096</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.40379396119674</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K32" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L32" t="n">
-        <v>274.3746085046435</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M32" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N32" t="n">
-        <v>332.9626517459646</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O32" t="n">
-        <v>277.1250097811784</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P32" t="n">
-        <v>191.9262766422086</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.75034647002275</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082178</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405873</v>
       </c>
       <c r="L33" t="n">
         <v>285.7627596518972</v>
@@ -37162,13 +37162,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O33" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P33" t="n">
-        <v>35.8795990866009</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151269</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.995723626970289</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L34" t="n">
-        <v>63.85525412676522</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M34" t="n">
-        <v>76.00912912692046</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N34" t="n">
-        <v>82.29890925793126</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O34" t="n">
-        <v>53.79651836186801</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P34" t="n">
-        <v>19.62327613144096</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.40379396119674</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K35" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L35" t="n">
-        <v>274.3746085046435</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M35" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N35" t="n">
-        <v>332.9626517459646</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O35" t="n">
-        <v>277.1250097811784</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P35" t="n">
-        <v>191.9262766422086</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.75034647002275</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>78.80210640405907</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L36" t="n">
-        <v>285.7627596518972</v>
+        <v>110.3840596307839</v>
       </c>
       <c r="M36" t="n">
         <v>378.678393487941</v>
@@ -37399,13 +37399,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O36" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P36" t="n">
-        <v>231.5559236085355</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.995723626970289</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L37" t="n">
-        <v>63.85525412676522</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M37" t="n">
-        <v>76.00912912692046</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N37" t="n">
-        <v>82.29890925793126</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O37" t="n">
-        <v>53.79651836186801</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P37" t="n">
-        <v>19.62327613144096</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.40379396119674</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K38" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L38" t="n">
-        <v>274.3746085046435</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M38" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N38" t="n">
-        <v>332.9626517459646</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O38" t="n">
-        <v>277.1250097811784</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P38" t="n">
-        <v>191.9262766422086</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.75034647002275</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K39" t="n">
-        <v>78.80210640405951</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L39" t="n">
         <v>285.7627596518972</v>
@@ -37636,10 +37636,10 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O39" t="n">
-        <v>316.2959939867617</v>
+        <v>212.0733843963393</v>
       </c>
       <c r="P39" t="n">
-        <v>231.5559236085355</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7.995723626970289</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L40" t="n">
-        <v>63.85525412676522</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M40" t="n">
-        <v>76.00912912692046</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N40" t="n">
-        <v>82.29890925793126</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O40" t="n">
-        <v>53.79651836186801</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P40" t="n">
-        <v>19.62327613144096</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K41" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L41" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M41" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N41" t="n">
         <v>332.9626517459645</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082177</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>162.7270914936593</v>
@@ -37870,7 +37870,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N42" t="n">
-        <v>211.6305083063592</v>
+        <v>323.381847738693</v>
       </c>
       <c r="O42" t="n">
         <v>316.2959939867617</v>
@@ -37879,7 +37879,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.45371493151268</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,19 +37943,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L43" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M43" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N43" t="n">
-        <v>82.29890925793124</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O43" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P43" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119645</v>
       </c>
       <c r="K44" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L44" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M44" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N44" t="n">
         <v>332.9626517459645</v>
@@ -38107,13 +38107,13 @@
         <v>378.678393487941</v>
       </c>
       <c r="N45" t="n">
-        <v>407.3068328282941</v>
+        <v>323.381847738693</v>
       </c>
       <c r="O45" t="n">
         <v>316.2959939867617</v>
       </c>
       <c r="P45" t="n">
-        <v>147.630938518935</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L46" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M46" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N46" t="n">
-        <v>82.29890925793124</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O46" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P46" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
